--- a/BakeryManagementSystem.CSV.xlsx
+++ b/BakeryManagementSystem.CSV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>ValidUserName</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>DirectorateUserName</t>
+  </si>
+  <si>
+    <t>BQ001</t>
+  </si>
+  <si>
+    <t>DirectoratePassword</t>
   </si>
 </sst>
 </file>
@@ -899,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +926,7 @@
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,8 +957,14 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -980,73 +995,79 @@
       <c r="J2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H3" s="1">
         <v>29001113200125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="1">
         <v>28912113200094</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" s="1">
         <v>28911273200141</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="1">
         <v>28910223200119</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="1">
         <v>28907313200061</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="1">
         <v>28906292800431</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="1">
         <v>28906063200055</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="1">
         <v>28902143200077</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="1">
         <v>28901143200151</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="1">
         <v>28901013200478</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="1">
         <v>28808011710134</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="1">
         <v>28806273200053</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="1">
         <v>28803178800851</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="1">
         <v>28803063200094</v>
       </c>
